--- a/classification_report.xlsx
+++ b/classification_report.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9668874172185431</v>
+        <v>0.7463126843657817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9668874172185431</v>
+        <v>0.8377483443708609</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9668874172185431</v>
+        <v>0.7893915756630265</v>
       </c>
       <c r="E3" t="n">
-        <v>151</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9798657718120806</v>
+        <v>0.9395973154362416</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9898305084745762</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="E4" t="n">
-        <v>146</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.8588235294117647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.8957055214723926</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9951100244498777</v>
+        <v>0.9876695437731196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9878640776699029</v>
+        <v>0.9720873786407767</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9914738124238733</v>
+        <v>0.9798165137614678</v>
       </c>
       <c r="E6" t="n">
-        <v>412</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.993006993006993</v>
+        <v>0.9075342465753424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9594594594594594</v>
+        <v>0.8952702702702703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9759450171821306</v>
+        <v>0.9013605442176871</v>
       </c>
       <c r="E7" t="n">
-        <v>148</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9775280898876404</v>
+        <v>0.8495412844036697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.8589981447124304</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9720670391061451</v>
+        <v>0.8542435424354243</v>
       </c>
       <c r="E8" t="n">
-        <v>270</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9893617021276596</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9789473684210527</v>
+        <v>0.9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9841269841269842</v>
+        <v>0.8883116883116884</v>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9663608562691132</v>
+        <v>0.9219269102990033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9937106918238994</v>
+        <v>0.8740157480314961</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9798449612403101</v>
+        <v>0.8973322554567502</v>
       </c>
       <c r="E10" t="n">
-        <v>318</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.8714285714285714</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.953125</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9104477611940298</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9816176470588235</v>
+        <v>0.9056432038834952</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9816176470588235</v>
+        <v>0.9056432038834952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9816176470588235</v>
+        <v>0.9056432038834952</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9816176470588235</v>
+        <v>0.9056432038834952</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9844865040818419</v>
+        <v>0.8991376523647698</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9830279867306035</v>
+        <v>0.902201600328751</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9836919925819074</v>
+        <v>0.8999095278218681</v>
       </c>
       <c r="E13" t="n">
-        <v>1632</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9817619276889198</v>
+        <v>0.9081755945923476</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9816176470588235</v>
+        <v>0.9056432038834952</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9816073463382478</v>
+        <v>0.9064157843020394</v>
       </c>
       <c r="E14" t="n">
-        <v>1632</v>
+        <v>3296</v>
       </c>
     </row>
   </sheetData>
